--- a/src/com/automation/xls/Login_Google.xlsx
+++ b/src/com/automation/xls/Login_Google.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="39">
   <si>
     <t>data sheet name</t>
   </si>
@@ -120,6 +120,60 @@
   </si>
   <si>
     <t>Thu Jun 18 16:02:48 IST 2015</t>
+  </si>
+  <si>
+    <t>Thu Jun 18 19:04:37 IST 2015</t>
+  </si>
+  <si>
+    <t>Result0</t>
+  </si>
+  <si>
+    <t>FAILFailed to connect to binary FirefoxBinary(C:\Program Files (x86)\Mozilla Firefox\firefox.exe) on port 7055; process output follows: 
+02-8627-8E4385ECA58D}","syncGUID":"KRQbcjX_k59K","location":"winreg-app-global","version":"2014.7.12.14","type":"extension","internalName":null,"updateURL":null,"updateKey":null,"optionsURL":null,"optionsType":null,"aboutURL":null,"iconURL":"chrome://coffplgn/skin/symantec.png","icon64URL":null,"defaultLocale":{"name":"Norton Identity Safe Toolbar","description":"Symantec Corporation","creator":"Symantec Corporation","homepageURL":"http://www.symantec.com"},"visible":true,"active":false,"userDisabled":true,"appDisabled":false,"descriptor":"C:\\ProgramData\\Norton\\{92622AAD-05E8-4459-B256-765CE1E929FB}\\NST_2014.7.6.15\\coFFPlgn","installDate":1434347428501,"updateDate":1434347428501,"applyBackgroundUpdates":1,"bootstrap":false,"size":5170640,"sourceURI":null,"releaseNotesURI":null,"softDisabled":false,"foreignInstall":true,"hasBinaryComponents":true,"strictCompatibility":false,"locales":[],"targetApplications":[{"id":"{ec8030f7-c20a-464f-9b0e-13a3a9e97384}","minVersion":"36.0","maxVersion":"38.*"}],"targetPlatforms":[],"multiprocessCompatible":false}
+1434634534741	addons.xpi	DEBUG	Updating database with changes to installed add-ons
+1434634534741	addons.xpi-utils	DEBUG	Updating add-on states
+1434634534743	addons.xpi-utils	DEBUG	Writing add-ons list
+1434634534755	addons.manager	DEBUG	Registering shutdown blocker for XPIProvider
+1434634534756	addons.manager	DEBUG	Provider finished startup: XPIProvider
+1434634534756	addons.manager	DEBUG	Starting provider: LightweightThemeManager
+1434634534756	addons.manager	DEBUG	Registering shutdown blocker for LightweightThemeManager
+1434634534757	addons.manager	DEBUG	Provider finished startup: LightweightThemeManager
+1434634534757	addons.manager	DEBUG	Starting provider: GMPProvider
+1434634534764	addons.manager	DEBUG	Registering shutdown blocker for GMPProvider
+1434634534765	addons.manager	DEBUG	Provider finished startup: GMPProvider
+1434634534765	addons.manager	DEBUG	Starting provider: PluginProvider
+1434634534765	addons.manager	DEBUG	Registering shutdown blocker for PluginProvider
+1434634534766	addons.manager	DEBUG	Provider finished startup: PluginProvider
+1434634534766	addons.manager	DEBUG	Completed startup sequence
+1434634537149	addons.manager	DEBUG	Starting provider: &lt;unnamed-provider&gt;
+1434634537150	addons.manager	DEBUG	Registering shutdown blocker for &lt;unnamed-provider&gt;
+1434634537151	addons.manager	DEBUG	Provider finished startup: &lt;unnamed-provider&gt;
+1434634538259	DeferredSave.extensions.json	DEBUG	Starting timer
+1434634539273	DeferredSave.extensions.json	DEBUG	Starting write
+1434634541732	addons.manager	DEBUG	shutdown
+1434634541733	addons.manager	DEBUG	Calling shutdown blocker for XPIProvider
+1434634541733	addons.xpi	DEBUG	shutdown
+1434634541734	addons.xpi-utils	DEBUG	shutdown
+1434634541734	addons.manager	DEBUG	Calling shutdown blocker for LightweightThemeManager
+1434634541735	addons.manager	DEBUG	Calling shutdown blocker for GMPProvider
+1434634541740	addons.manager	DEBUG	Calling shutdown blocker for PluginProvider
+1434634541741	addons.manager	DEBUG	Calling shutdown blocker for &lt;unnamed-provider&gt;
+1434634541858	DeferredSave.extensions.json	DEBUG	Write succeeded
+1434634541860	addons.xpi-utils	DEBUG	XPI Database saved, setting schema version preference to 16
+1434634541861	addons.xpi	DEBUG	Notifying XPI shutdown observers
+1434634541870	addons.manager	DEBUG	Async provider shutdown done
+JavaScript error: resource://gre/modules/BookmarkHTMLUtils.jsm, line 897: NS_ERROR_UNEXPECTED: Component returned failure code: 0x8000ffff (NS_ERROR_UNEXPECTED) [nsINavBookmarksService.removeFolderChildren]
+JavaScript error: resource://gre/modules/BookmarkHTMLUtils.jsm, line 897: NS_ERROR_UNEXPECTED: Component returned failure code: 0x8000ffff (NS_ERROR_UNEXPECTED) [nsINavBookmarksService.removeFolderChildren]
+JavaScript error: jar:file:///C:/Program%20Files%20(x86)/Mozilla%20Firefox/browser/omni.ja!/components/nsBrowserGlue.js, line 1890: NS_ERROR_UNEXPECTED: Component returned failure code: 0x8000ffff (NS_ERROR_UNEXPECTED) [nsIAnnotationService.getItemsWithAnnotation]
+Build info: version: 'unknown', revision: 'unknown', time: 'unknown'
+System info: host: 'Lenovo-PC', ip: '192.168.1.3', os.name: 'Windows 8.1', os.arch: 'amd64', os.version: '6.3', java.version: '1.8.0_45'
+Driver info: driver.version: FirefoxDriver</t>
+  </si>
+  <si>
+    <t>Thu Jun 18 19:06:06 IST 2015</t>
+  </si>
+  <si>
+    <t>Thu Jun 18 19:10:40 IST 2015</t>
   </si>
 </sst>
 </file>
@@ -153,7 +207,7 @@
       <family val="0"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -190,6 +244,16 @@
         <bgColor rgb="FF000080"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill>
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border diagonalUp="false" diagonalDown="false">
@@ -232,7 +296,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -281,6 +345,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="true"/>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
@@ -455,10 +520,10 @@
         <v>11</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="F2" s="0" t="s">
         <v>14</v>
@@ -495,7 +560,8 @@
     <col min="5" max="5" hidden="false" style="0" width="44.9948979591837" collapsed="true"/>
     <col min="6" max="6" hidden="false" style="0" width="22.0051020408163" collapsed="true"/>
     <col min="7" max="8" hidden="false" style="0" width="7.51530612244898" collapsed="true"/>
-    <col min="9" max="1025" hidden="false" style="0" width="8.72959183673469" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" hidden="false" style="0" width="7.51171875" collapsed="true"/>
+    <col min="10" max="1025" hidden="false" style="0" width="8.72959183673469" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -521,6 +587,9 @@
       <c r="H1" s="7" t="s">
         <v>19</v>
       </c>
+      <c r="I1" t="s" s="12">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="2" t="s">
@@ -541,6 +610,9 @@
       </c>
       <c r="H2" s="0" t="s">
         <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
